--- a/tokens.xlsx
+++ b/tokens.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\STOODIA\CODING\TKOM\TKOM-animation-interpreter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B03E731-D0F4-408F-B3E0-28D196AAAF48}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77CBC52-74D6-4B5B-92FE-D67F064B33D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30975" yWindow="2310" windowWidth="13095" windowHeight="11505" activeTab="2" xr2:uid="{4F9C191E-8E0D-424B-992A-F2E410A6FFFC}"/>
+    <workbookView xWindow="-26850" yWindow="1950" windowWidth="21600" windowHeight="11505" activeTab="3" xr2:uid="{4F9C191E-8E0D-424B-992A-F2E410A6FFFC}"/>
   </bookViews>
   <sheets>
     <sheet name="keywords" sheetId="1" r:id="rId1"/>
     <sheet name="invalid 0" sheetId="2" r:id="rId2"/>
     <sheet name="special" sheetId="3" r:id="rId3"/>
+    <sheet name="md" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="63">
   <si>
     <t>canvas</t>
   </si>
@@ -56,36 +57,18 @@
     <t>rectangle</t>
   </si>
   <si>
-    <t>animation</t>
-  </si>
-  <si>
     <t>move</t>
   </si>
   <si>
-    <t>show</t>
-  </si>
-  <si>
     <t>rotate</t>
   </si>
   <si>
-    <t>shearx</t>
-  </si>
-  <si>
-    <t>sheary</t>
-  </si>
-  <si>
     <t>scale</t>
   </si>
   <si>
     <t>color</t>
   </si>
   <si>
-    <t>posx</t>
-  </si>
-  <si>
-    <t>posy</t>
-  </si>
-  <si>
     <t>height</t>
   </si>
   <si>
@@ -95,12 +78,6 @@
     <t>radius</t>
   </si>
   <si>
-    <t>step</t>
-  </si>
-  <si>
-    <t>iterations</t>
-  </si>
-  <si>
     <t>a-z</t>
   </si>
   <si>
@@ -168,6 +145,87 @@
   </si>
   <si>
     <t>COMMENT</t>
+  </si>
+  <si>
+    <t>draw</t>
+  </si>
+  <si>
+    <t>clear</t>
+  </si>
+  <si>
+    <t>shear</t>
+  </si>
+  <si>
+    <t>if</t>
+  </si>
+  <si>
+    <t>pause</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>else</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>(</t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>[</t>
+  </si>
+  <si>
+    <t>]</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>&gt;</t>
+  </si>
+  <si>
+    <t>&lt;</t>
+  </si>
+  <si>
+    <t>=</t>
   </si>
 </sst>
 </file>
@@ -520,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0EAB8E3-131C-4834-8FDB-81421ED17089}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B36" sqref="A1:B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -534,146 +592,146 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B1" t="str">
         <f>"'"&amp;A1&amp;"'"&amp;","</f>
-        <v>'animation',</v>
+        <v>'canvas',</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" t="str">
-        <f t="shared" ref="B2:B21" si="0">"'"&amp;A2&amp;"'"&amp;","</f>
-        <v>'canvas',</v>
+        <f t="shared" ref="B1:B36" si="0">"'"&amp;A2&amp;"'"&amp;","</f>
+        <v>'circle',</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" si="0"/>
-        <v>'circle',</v>
+        <v>'color',</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
-        <v>'color',</v>
+        <v>'height',</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
-        <v>'height',</v>
+        <v>'move',</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
-        <v>'iterations',</v>
+        <v>'polygon',</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
-        <v>'move',</v>
+        <v>'x',</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v>'polygon',</v>
+        <v>'y',</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v>'posx',</v>
+        <v>'radius',</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v>'posy',</v>
+        <v>'rectangle',</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
-        <v>'radius',</v>
+        <v>'rgb',</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v>'rectangle',</v>
+        <v>'rotate',</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
-        <v>'rgb',</v>
+        <v>'scale',</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
-        <v>'rotate',</v>
+        <v>'shear',</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
-        <v>'scale',</v>
+        <v>'draw',</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" si="0"/>
-        <v>'shearx',</v>
+        <v>'triangle',</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -682,48 +740,183 @@
       </c>
       <c r="B17" t="str">
         <f t="shared" si="0"/>
-        <v>'sheary',</v>
+        <v>'width',</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="0"/>
-        <v>'show',</v>
+        <v>'clear',</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" si="0"/>
-        <v>'step',</v>
+        <v>'if',</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="0"/>
-        <v>'triangle',</v>
+        <v>'pause',</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" si="0"/>
-        <v>'width',</v>
+        <v>'for',</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>'if',</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>'else',</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>'*',</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>'-',</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>'/',</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>'+',</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>'#',</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>'(',</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" t="str">
+        <f t="shared" si="0"/>
+        <v>')',</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" si="0"/>
+        <v>'{',</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" t="str">
+        <f t="shared" si="0"/>
+        <v>'}',</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" t="str">
+        <f t="shared" si="0"/>
+        <v>'[',</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" t="str">
+        <f t="shared" si="0"/>
+        <v>']',</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" t="str">
+        <f t="shared" si="0"/>
+        <v>';',</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" t="str">
+        <f t="shared" si="0"/>
+        <v>',',</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A21">
-    <sortCondition ref="A1:A21"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A17">
+    <sortCondition ref="A1:A17"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -744,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -752,27 +945,27 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H10" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I10" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="J10" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="L10" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="M10" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -784,8 +977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43B4B991-0DDB-44E9-8942-780A74B6BCFE}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -795,7 +988,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B1" t="str">
         <f>A1&amp;" : "&amp;"'"&amp;A1&amp;"',"</f>
@@ -804,7 +997,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B2" t="str">
         <f t="shared" ref="B2:B16" si="0">A2&amp;" : "&amp;"'"&amp;A2&amp;"',"</f>
@@ -813,7 +1006,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" si="0"/>
@@ -822,7 +1015,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
@@ -831,7 +1024,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
@@ -840,7 +1033,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
@@ -849,7 +1042,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
@@ -858,7 +1051,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
@@ -867,7 +1060,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
@@ -876,7 +1069,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
@@ -885,7 +1078,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
@@ -894,7 +1087,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
@@ -903,7 +1096,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
@@ -912,7 +1105,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
@@ -921,7 +1114,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
@@ -930,7 +1123,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" si="0"/>
@@ -940,4 +1133,616 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B782A966-9568-4CB5-B07C-AB0B8A72F973}">
+  <dimension ref="A1:G40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="str">
+        <f>"`"&amp;A1&amp;"`"</f>
+        <v>`-`</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="str">
+        <f>"`"&amp;A3&amp;"`"</f>
+        <v>`#`</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" t="str">
+        <f>"`"&amp;A4&amp;"`"</f>
+        <v>`(`</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" t="str">
+        <f>"`"&amp;A5&amp;"`"</f>
+        <v>`)`</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="str">
+        <f>"`"&amp;A6&amp;"`"</f>
+        <v>`*`</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" t="str">
+        <f>"`"&amp;A7&amp;"`"</f>
+        <v>`,`</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" t="str">
+        <f>"`"&amp;A9&amp;"`"</f>
+        <v>`/`</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" t="str">
+        <f>"`"&amp;A10&amp;"`"</f>
+        <v>`;`</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" t="str">
+        <f>"`"&amp;A11&amp;"`"</f>
+        <v>`[`</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" t="str">
+        <f>"`"&amp;A12&amp;"`"</f>
+        <v>`]`</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" t="str">
+        <f>"`"&amp;A13&amp;"`"</f>
+        <v>`{`</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" t="str">
+        <f>"`"&amp;A14&amp;"`"</f>
+        <v>`}`</v>
+      </c>
+      <c r="D14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" t="str">
+        <f>""""&amp;D14&amp;""""</f>
+        <v>"canvas"</v>
+      </c>
+      <c r="G14" t="str">
+        <f>E14</f>
+        <v>"canvas"</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" t="str">
+        <f>"`"&amp;A15&amp;"`"</f>
+        <v>`+`</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" ref="E15:E35" si="0">""""&amp;D15&amp;""""</f>
+        <v>"circle"</v>
+      </c>
+      <c r="G15" t="str">
+        <f>G14&amp;" | "&amp;E15</f>
+        <v>"canvas" | "circle"</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" t="str">
+        <f>"`"&amp;A16&amp;"`"</f>
+        <v>`&lt;`</v>
+      </c>
+      <c r="D16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>"clear"</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" ref="G16:G35" si="1">G15&amp;" | "&amp;E16</f>
+        <v>"canvas" | "circle" | "clear"</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" t="str">
+        <f>"`"&amp;A17&amp;"`"</f>
+        <v>`=`</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>"color"</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="1"/>
+        <v>"canvas" | "circle" | "clear" | "color"</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" t="str">
+        <f>"`"&amp;A18&amp;"`"</f>
+        <v>`&gt;`</v>
+      </c>
+      <c r="D18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>"draw"</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="1"/>
+        <v>"canvas" | "circle" | "clear" | "color" | "draw"</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="str">
+        <f>"`"&amp;A19&amp;"`"</f>
+        <v>`canvas`</v>
+      </c>
+      <c r="D19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>"else"</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="1"/>
+        <v>"canvas" | "circle" | "clear" | "color" | "draw" | "else"</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" t="str">
+        <f>"`"&amp;A20&amp;"`"</f>
+        <v>`circle`</v>
+      </c>
+      <c r="D20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>"for"</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="1"/>
+        <v>"canvas" | "circle" | "clear" | "color" | "draw" | "else" | "for"</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" t="str">
+        <f>"`"&amp;A21&amp;"`"</f>
+        <v>`clear`</v>
+      </c>
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>"height"</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="1"/>
+        <v>"canvas" | "circle" | "clear" | "color" | "draw" | "else" | "for" | "height"</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" t="str">
+        <f>"`"&amp;A22&amp;"`"</f>
+        <v>`color`</v>
+      </c>
+      <c r="D22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v>"if"</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="1"/>
+        <v>"canvas" | "circle" | "clear" | "color" | "draw" | "else" | "for" | "height" | "if"</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" t="str">
+        <f>"`"&amp;A23&amp;"`"</f>
+        <v>`draw`</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v>"move"</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="1"/>
+        <v>"canvas" | "circle" | "clear" | "color" | "draw" | "else" | "for" | "height" | "if" | "move"</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" t="str">
+        <f>"`"&amp;A24&amp;"`"</f>
+        <v>`else`</v>
+      </c>
+      <c r="D24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="0"/>
+        <v>"pause"</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="1"/>
+        <v>"canvas" | "circle" | "clear" | "color" | "draw" | "else" | "for" | "height" | "if" | "move" | "pause"</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" t="str">
+        <f>"`"&amp;A25&amp;"`"</f>
+        <v>`for`</v>
+      </c>
+      <c r="D25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v>"polygon"</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="1"/>
+        <v>"canvas" | "circle" | "clear" | "color" | "draw" | "else" | "for" | "height" | "if" | "move" | "pause" | "polygon"</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" t="str">
+        <f>"`"&amp;A26&amp;"`"</f>
+        <v>`height`</v>
+      </c>
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
+        <v>"radius"</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="1"/>
+        <v>"canvas" | "circle" | "clear" | "color" | "draw" | "else" | "for" | "height" | "if" | "move" | "pause" | "polygon" | "radius"</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" t="str">
+        <f>"`"&amp;A27&amp;"`"</f>
+        <v>`if`</v>
+      </c>
+      <c r="D27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v>"rectangle"</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="1"/>
+        <v>"canvas" | "circle" | "clear" | "color" | "draw" | "else" | "for" | "height" | "if" | "move" | "pause" | "polygon" | "radius" | "rectangle"</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" t="str">
+        <f>"`"&amp;A28&amp;"`"</f>
+        <v>`move`</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="0"/>
+        <v>"rgb"</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="1"/>
+        <v>"canvas" | "circle" | "clear" | "color" | "draw" | "else" | "for" | "height" | "if" | "move" | "pause" | "polygon" | "radius" | "rectangle" | "rgb"</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" t="str">
+        <f>"`"&amp;A29&amp;"`"</f>
+        <v>`pause`</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="0"/>
+        <v>"rotate"</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="1"/>
+        <v>"canvas" | "circle" | "clear" | "color" | "draw" | "else" | "for" | "height" | "if" | "move" | "pause" | "polygon" | "radius" | "rectangle" | "rgb" | "rotate"</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" t="str">
+        <f>"`"&amp;A30&amp;"`"</f>
+        <v>`polygon`</v>
+      </c>
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="0"/>
+        <v>"scale"</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="1"/>
+        <v>"canvas" | "circle" | "clear" | "color" | "draw" | "else" | "for" | "height" | "if" | "move" | "pause" | "polygon" | "radius" | "rectangle" | "rgb" | "rotate" | "scale"</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" t="str">
+        <f>"`"&amp;A31&amp;"`"</f>
+        <v>`radius`</v>
+      </c>
+      <c r="D31" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="0"/>
+        <v>"shear"</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="1"/>
+        <v>"canvas" | "circle" | "clear" | "color" | "draw" | "else" | "for" | "height" | "if" | "move" | "pause" | "polygon" | "radius" | "rectangle" | "rgb" | "rotate" | "scale" | "shear"</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" t="str">
+        <f>"`"&amp;A32&amp;"`"</f>
+        <v>`rectangle`</v>
+      </c>
+      <c r="D32" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="0"/>
+        <v>"triangle"</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="1"/>
+        <v>"canvas" | "circle" | "clear" | "color" | "draw" | "else" | "for" | "height" | "if" | "move" | "pause" | "polygon" | "radius" | "rectangle" | "rgb" | "rotate" | "scale" | "shear" | "triangle"</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" t="str">
+        <f>"`"&amp;A33&amp;"`"</f>
+        <v>`rgb`</v>
+      </c>
+      <c r="D33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="0"/>
+        <v>"width"</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="1"/>
+        <v>"canvas" | "circle" | "clear" | "color" | "draw" | "else" | "for" | "height" | "if" | "move" | "pause" | "polygon" | "radius" | "rectangle" | "rgb" | "rotate" | "scale" | "shear" | "triangle" | "width"</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" t="str">
+        <f>"`"&amp;A34&amp;"`"</f>
+        <v>`rotate`</v>
+      </c>
+      <c r="D34" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="0"/>
+        <v>"x"</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="1"/>
+        <v>"canvas" | "circle" | "clear" | "color" | "draw" | "else" | "for" | "height" | "if" | "move" | "pause" | "polygon" | "radius" | "rectangle" | "rgb" | "rotate" | "scale" | "shear" | "triangle" | "width" | "x"</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" t="str">
+        <f>"`"&amp;A35&amp;"`"</f>
+        <v>`scale`</v>
+      </c>
+      <c r="D35" t="s">
+        <v>57</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="0"/>
+        <v>"y"</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="1"/>
+        <v>"canvas" | "circle" | "clear" | "color" | "draw" | "else" | "for" | "height" | "if" | "move" | "pause" | "polygon" | "radius" | "rectangle" | "rgb" | "rotate" | "scale" | "shear" | "triangle" | "width" | "x" | "y"</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" t="str">
+        <f>"`"&amp;A36&amp;"`"</f>
+        <v>`shear`</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" t="str">
+        <f>"`"&amp;A37&amp;"`"</f>
+        <v>`triangle`</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" t="str">
+        <f>"`"&amp;A38&amp;"`"</f>
+        <v>`width`</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" t="str">
+        <f>"`"&amp;A39&amp;"`"</f>
+        <v>`x`</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" t="str">
+        <f>"`"&amp;A40&amp;"`"</f>
+        <v>`y`</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B40">
+    <sortCondition ref="A1:A40"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tokens.xlsx
+++ b/tokens.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\STOODIA\CODING\TKOM\TKOM-animation-interpreter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77CBC52-74D6-4B5B-92FE-D67F064B33D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26336675-3D7F-467E-8EF3-B059B004DE55}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26850" yWindow="1950" windowWidth="21600" windowHeight="11505" activeTab="3" xr2:uid="{4F9C191E-8E0D-424B-992A-F2E410A6FFFC}"/>
+    <workbookView xWindow="1950" yWindow="2430" windowWidth="21600" windowHeight="11505" activeTab="2" xr2:uid="{4F9C191E-8E0D-424B-992A-F2E410A6FFFC}"/>
   </bookViews>
   <sheets>
     <sheet name="keywords" sheetId="1" r:id="rId1"/>
     <sheet name="invalid 0" sheetId="2" r:id="rId2"/>
     <sheet name="special" sheetId="3" r:id="rId3"/>
-    <sheet name="md" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="68">
   <si>
     <t>canvas</t>
   </si>
@@ -105,12 +104,6 @@
     <t>PARENTHCLOSE</t>
   </si>
   <si>
-    <t>BRACKETOPEN</t>
-  </si>
-  <si>
-    <t>BRACKETCLOSE</t>
-  </si>
-  <si>
     <t>COMMA</t>
   </si>
   <si>
@@ -135,9 +128,6 @@
     <t>EOF</t>
   </si>
   <si>
-    <t>KEYWORD</t>
-  </si>
-  <si>
     <t>FLOAT</t>
   </si>
   <si>
@@ -213,19 +203,43 @@
     <t>y</t>
   </si>
   <si>
-    <t>!</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>&gt;</t>
-  </si>
-  <si>
-    <t>&lt;</t>
-  </si>
-  <si>
-    <t>=</t>
+    <t>NOT</t>
+  </si>
+  <si>
+    <t>CURLYCLOSE</t>
+  </si>
+  <si>
+    <t>CURLYOPEN</t>
+  </si>
+  <si>
+    <t>DIVIDE</t>
+  </si>
+  <si>
+    <t>LESS</t>
+  </si>
+  <si>
+    <t>GREATER</t>
+  </si>
+  <si>
+    <t>EQUALS</t>
+  </si>
+  <si>
+    <t>ELSE</t>
+  </si>
+  <si>
+    <t>FOR</t>
+  </si>
+  <si>
+    <t>FUNC</t>
+  </si>
+  <si>
+    <t>IF</t>
+  </si>
+  <si>
+    <t>RETURN</t>
+  </si>
+  <si>
+    <t>UNKNOWN</t>
   </si>
 </sst>
 </file>
@@ -604,7 +618,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="str">
-        <f t="shared" ref="B1:B36" si="0">"'"&amp;A2&amp;"'"&amp;","</f>
+        <f t="shared" ref="B2:B36" si="0">"'"&amp;A2&amp;"'"&amp;","</f>
         <v>'circle',</v>
       </c>
     </row>
@@ -646,7 +660,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
@@ -655,7 +669,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
@@ -709,7 +723,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
@@ -718,7 +732,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
@@ -745,7 +759,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="0"/>
@@ -754,7 +768,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" si="0"/>
@@ -763,7 +777,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="0"/>
@@ -772,7 +786,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" si="0"/>
@@ -781,7 +795,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" si="0"/>
@@ -790,7 +804,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" si="0"/>
@@ -799,7 +813,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B24" t="str">
         <f t="shared" si="0"/>
@@ -808,7 +822,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" si="0"/>
@@ -817,7 +831,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" si="0"/>
@@ -826,7 +840,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B27" t="str">
         <f t="shared" si="0"/>
@@ -835,7 +849,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B28" t="str">
         <f t="shared" si="0"/>
@@ -844,7 +858,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B29" t="str">
         <f t="shared" si="0"/>
@@ -853,7 +867,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B30" t="str">
         <f t="shared" si="0"/>
@@ -862,7 +876,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B31" t="str">
         <f t="shared" si="0"/>
@@ -871,7 +885,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B32" t="str">
         <f t="shared" si="0"/>
@@ -880,7 +894,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B33" t="str">
         <f t="shared" si="0"/>
@@ -889,7 +903,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" si="0"/>
@@ -898,7 +912,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="0"/>
@@ -907,7 +921,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="0"/>
@@ -975,10 +989,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43B4B991-0DDB-44E9-8942-780A74B6BCFE}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -988,760 +1002,241 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B1" t="str">
         <f>A1&amp;" : "&amp;"'"&amp;A1&amp;"',"</f>
-        <v>IDENTIFIER : 'IDENTIFIER',</v>
+        <v>COMMA : 'COMMA',</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" t="str">
-        <f t="shared" ref="B2:B16" si="0">A2&amp;" : "&amp;"'"&amp;A2&amp;"',"</f>
-        <v>EOF : 'EOF',</v>
+        <f>A2&amp;" : "&amp;"'"&amp;A2&amp;"',"</f>
+        <v>COMMENT : 'COMMENT',</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" si="0"/>
-        <v>KEYWORD : 'KEYWORD',</v>
+        <f>A3&amp;" : "&amp;"'"&amp;A3&amp;"',"</f>
+        <v>CURLYCLOSE : 'CURLYCLOSE',</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="B4" t="str">
-        <f t="shared" si="0"/>
-        <v>FLOAT : 'FLOAT',</v>
+        <f>A4&amp;" : "&amp;"'"&amp;A4&amp;"',"</f>
+        <v>CURLYOPEN : 'CURLYOPEN',</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="B5" t="str">
-        <f t="shared" si="0"/>
-        <v>INT : 'INT',</v>
+        <f>A5&amp;" : "&amp;"'"&amp;A5&amp;"',"</f>
+        <v>DIVIDE : 'DIVIDE',</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B6" t="str">
-        <f t="shared" si="0"/>
-        <v>COMMENT : 'COMMENT',</v>
+        <f>A6&amp;" : "&amp;"'"&amp;A6&amp;"',"</f>
+        <v>DOT : 'DOT',</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="B7" t="str">
-        <f t="shared" si="0"/>
-        <v>PARENTHOPEN : 'PARENTHOPEN',</v>
+        <f>A7&amp;" : "&amp;"'"&amp;A7&amp;"',"</f>
+        <v>ELSE : 'ELSE',</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B8" t="str">
-        <f t="shared" si="0"/>
-        <v>PARENTHCLOSE : 'PARENTHCLOSE',</v>
+        <f>A8&amp;" : "&amp;"'"&amp;A8&amp;"',"</f>
+        <v>EOF : 'EOF',</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="B9" t="str">
-        <f t="shared" si="0"/>
-        <v>BRACKETOPEN : 'BRACKETOPEN',</v>
+        <f>A9&amp;" : "&amp;"'"&amp;A9&amp;"',"</f>
+        <v>EQUALS : 'EQUALS',</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B10" t="str">
-        <f t="shared" si="0"/>
-        <v>BRACKETCLOSE : 'BRACKETCLOSE',</v>
+        <f>A10&amp;" : "&amp;"'"&amp;A10&amp;"',"</f>
+        <v>FLOAT : 'FLOAT',</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="B11" t="str">
-        <f t="shared" si="0"/>
-        <v>COMMA : 'COMMA',</v>
+        <f>A11&amp;" : "&amp;"'"&amp;A11&amp;"',"</f>
+        <v>FOR : 'FOR',</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="B12" t="str">
-        <f t="shared" si="0"/>
-        <v>DOT : 'DOT',</v>
+        <f>A12&amp;" : "&amp;"'"&amp;A12&amp;"',"</f>
+        <v>FUNC : 'FUNC',</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="B13" t="str">
-        <f t="shared" si="0"/>
-        <v>SEMICOLON : 'SEMICOLON',</v>
+        <f>A13&amp;" : "&amp;"'"&amp;A13&amp;"',"</f>
+        <v>GREATER : 'GREATER',</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" t="str">
-        <f t="shared" si="0"/>
-        <v>PLUS : 'PLUS',</v>
+        <f>A14&amp;" : "&amp;"'"&amp;A14&amp;"',"</f>
+        <v>IDENTIFIER : 'IDENTIFIER',</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="B15" t="str">
-        <f t="shared" si="0"/>
-        <v>MINUS : 'MINUS',</v>
+        <f>A15&amp;" : "&amp;"'"&amp;A15&amp;"',"</f>
+        <v>IF : 'IF',</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B16" t="str">
-        <f t="shared" si="0"/>
+        <f>A16&amp;" : "&amp;"'"&amp;A16&amp;"',"</f>
+        <v>INT : 'INT',</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" t="str">
+        <f>A17&amp;" : "&amp;"'"&amp;A17&amp;"',"</f>
+        <v>LESS : 'LESS',</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="str">
+        <f>A18&amp;" : "&amp;"'"&amp;A18&amp;"',"</f>
+        <v>MINUS : 'MINUS',</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="str">
+        <f>A19&amp;" : "&amp;"'"&amp;A19&amp;"',"</f>
         <v>MULTIPLY : 'MULTIPLY',</v>
       </c>
     </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" t="str">
+        <f>A20&amp;" : "&amp;"'"&amp;A20&amp;"',"</f>
+        <v>NOT : 'NOT',</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="str">
+        <f>A21&amp;" : "&amp;"'"&amp;A21&amp;"',"</f>
+        <v>PARENTHCLOSE : 'PARENTHCLOSE',</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="str">
+        <f>A22&amp;" : "&amp;"'"&amp;A22&amp;"',"</f>
+        <v>PARENTHOPEN : 'PARENTHOPEN',</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="str">
+        <f>A23&amp;" : "&amp;"'"&amp;A23&amp;"',"</f>
+        <v>PLUS : 'PLUS',</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" t="str">
+        <f>A24&amp;" : "&amp;"'"&amp;A24&amp;"',"</f>
+        <v>RETURN : 'RETURN',</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="str">
+        <f>A25&amp;" : "&amp;"'"&amp;A25&amp;"',"</f>
+        <v>SEMICOLON : 'SEMICOLON',</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" t="str">
+        <f>A26&amp;" : "&amp;"'"&amp;A26&amp;"',"</f>
+        <v>UNKNOWN : 'UNKNOWN',</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B782A966-9568-4CB5-B07C-AB0B8A72F973}">
-  <dimension ref="A1:G40"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" t="str">
-        <f>"`"&amp;A1&amp;"`"</f>
-        <v>`-`</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" t="str">
-        <f>"`"&amp;A3&amp;"`"</f>
-        <v>`#`</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" t="str">
-        <f>"`"&amp;A4&amp;"`"</f>
-        <v>`(`</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" t="str">
-        <f>"`"&amp;A5&amp;"`"</f>
-        <v>`)`</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" t="str">
-        <f>"`"&amp;A6&amp;"`"</f>
-        <v>`*`</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" t="str">
-        <f>"`"&amp;A7&amp;"`"</f>
-        <v>`,`</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" t="str">
-        <f>"`"&amp;A9&amp;"`"</f>
-        <v>`/`</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" t="str">
-        <f>"`"&amp;A10&amp;"`"</f>
-        <v>`;`</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" t="str">
-        <f>"`"&amp;A11&amp;"`"</f>
-        <v>`[`</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" t="str">
-        <f>"`"&amp;A12&amp;"`"</f>
-        <v>`]`</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" t="str">
-        <f>"`"&amp;A13&amp;"`"</f>
-        <v>`{`</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" t="str">
-        <f>"`"&amp;A14&amp;"`"</f>
-        <v>`}`</v>
-      </c>
-      <c r="D14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" t="str">
-        <f>""""&amp;D14&amp;""""</f>
-        <v>"canvas"</v>
-      </c>
-      <c r="G14" t="str">
-        <f>E14</f>
-        <v>"canvas"</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" t="str">
-        <f>"`"&amp;A15&amp;"`"</f>
-        <v>`+`</v>
-      </c>
-      <c r="D15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" t="str">
-        <f t="shared" ref="E15:E35" si="0">""""&amp;D15&amp;""""</f>
-        <v>"circle"</v>
-      </c>
-      <c r="G15" t="str">
-        <f>G14&amp;" | "&amp;E15</f>
-        <v>"canvas" | "circle"</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" t="str">
-        <f>"`"&amp;A16&amp;"`"</f>
-        <v>`&lt;`</v>
-      </c>
-      <c r="D16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" t="str">
-        <f t="shared" si="0"/>
-        <v>"clear"</v>
-      </c>
-      <c r="G16" t="str">
-        <f t="shared" ref="G16:G35" si="1">G15&amp;" | "&amp;E16</f>
-        <v>"canvas" | "circle" | "clear"</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" t="str">
-        <f>"`"&amp;A17&amp;"`"</f>
-        <v>`=`</v>
-      </c>
-      <c r="D17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" t="str">
-        <f t="shared" si="0"/>
-        <v>"color"</v>
-      </c>
-      <c r="G17" t="str">
-        <f t="shared" si="1"/>
-        <v>"canvas" | "circle" | "clear" | "color"</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" t="str">
-        <f>"`"&amp;A18&amp;"`"</f>
-        <v>`&gt;`</v>
-      </c>
-      <c r="D18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" t="str">
-        <f t="shared" si="0"/>
-        <v>"draw"</v>
-      </c>
-      <c r="G18" t="str">
-        <f t="shared" si="1"/>
-        <v>"canvas" | "circle" | "clear" | "color" | "draw"</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" t="str">
-        <f>"`"&amp;A19&amp;"`"</f>
-        <v>`canvas`</v>
-      </c>
-      <c r="D19" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" t="str">
-        <f t="shared" si="0"/>
-        <v>"else"</v>
-      </c>
-      <c r="G19" t="str">
-        <f t="shared" si="1"/>
-        <v>"canvas" | "circle" | "clear" | "color" | "draw" | "else"</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" t="str">
-        <f>"`"&amp;A20&amp;"`"</f>
-        <v>`circle`</v>
-      </c>
-      <c r="D20" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" t="str">
-        <f t="shared" si="0"/>
-        <v>"for"</v>
-      </c>
-      <c r="G20" t="str">
-        <f t="shared" si="1"/>
-        <v>"canvas" | "circle" | "clear" | "color" | "draw" | "else" | "for"</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" t="str">
-        <f>"`"&amp;A21&amp;"`"</f>
-        <v>`clear`</v>
-      </c>
-      <c r="D21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" t="str">
-        <f t="shared" si="0"/>
-        <v>"height"</v>
-      </c>
-      <c r="G21" t="str">
-        <f t="shared" si="1"/>
-        <v>"canvas" | "circle" | "clear" | "color" | "draw" | "else" | "for" | "height"</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" t="str">
-        <f>"`"&amp;A22&amp;"`"</f>
-        <v>`color`</v>
-      </c>
-      <c r="D22" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" t="str">
-        <f t="shared" si="0"/>
-        <v>"if"</v>
-      </c>
-      <c r="G22" t="str">
-        <f t="shared" si="1"/>
-        <v>"canvas" | "circle" | "clear" | "color" | "draw" | "else" | "for" | "height" | "if"</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" t="str">
-        <f>"`"&amp;A23&amp;"`"</f>
-        <v>`draw`</v>
-      </c>
-      <c r="D23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" t="str">
-        <f t="shared" si="0"/>
-        <v>"move"</v>
-      </c>
-      <c r="G23" t="str">
-        <f t="shared" si="1"/>
-        <v>"canvas" | "circle" | "clear" | "color" | "draw" | "else" | "for" | "height" | "if" | "move"</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" t="str">
-        <f>"`"&amp;A24&amp;"`"</f>
-        <v>`else`</v>
-      </c>
-      <c r="D24" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" t="str">
-        <f t="shared" si="0"/>
-        <v>"pause"</v>
-      </c>
-      <c r="G24" t="str">
-        <f t="shared" si="1"/>
-        <v>"canvas" | "circle" | "clear" | "color" | "draw" | "else" | "for" | "height" | "if" | "move" | "pause"</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" t="str">
-        <f>"`"&amp;A25&amp;"`"</f>
-        <v>`for`</v>
-      </c>
-      <c r="D25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25" t="str">
-        <f t="shared" si="0"/>
-        <v>"polygon"</v>
-      </c>
-      <c r="G25" t="str">
-        <f t="shared" si="1"/>
-        <v>"canvas" | "circle" | "clear" | "color" | "draw" | "else" | "for" | "height" | "if" | "move" | "pause" | "polygon"</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" t="str">
-        <f>"`"&amp;A26&amp;"`"</f>
-        <v>`height`</v>
-      </c>
-      <c r="D26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" t="str">
-        <f t="shared" si="0"/>
-        <v>"radius"</v>
-      </c>
-      <c r="G26" t="str">
-        <f t="shared" si="1"/>
-        <v>"canvas" | "circle" | "clear" | "color" | "draw" | "else" | "for" | "height" | "if" | "move" | "pause" | "polygon" | "radius"</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" t="str">
-        <f>"`"&amp;A27&amp;"`"</f>
-        <v>`if`</v>
-      </c>
-      <c r="D27" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" t="str">
-        <f t="shared" si="0"/>
-        <v>"rectangle"</v>
-      </c>
-      <c r="G27" t="str">
-        <f t="shared" si="1"/>
-        <v>"canvas" | "circle" | "clear" | "color" | "draw" | "else" | "for" | "height" | "if" | "move" | "pause" | "polygon" | "radius" | "rectangle"</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" t="str">
-        <f>"`"&amp;A28&amp;"`"</f>
-        <v>`move`</v>
-      </c>
-      <c r="D28" t="s">
-        <v>1</v>
-      </c>
-      <c r="E28" t="str">
-        <f t="shared" si="0"/>
-        <v>"rgb"</v>
-      </c>
-      <c r="G28" t="str">
-        <f t="shared" si="1"/>
-        <v>"canvas" | "circle" | "clear" | "color" | "draw" | "else" | "for" | "height" | "if" | "move" | "pause" | "polygon" | "radius" | "rectangle" | "rgb"</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>40</v>
-      </c>
-      <c r="B29" t="str">
-        <f>"`"&amp;A29&amp;"`"</f>
-        <v>`pause`</v>
-      </c>
-      <c r="D29" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" t="str">
-        <f t="shared" si="0"/>
-        <v>"rotate"</v>
-      </c>
-      <c r="G29" t="str">
-        <f t="shared" si="1"/>
-        <v>"canvas" | "circle" | "clear" | "color" | "draw" | "else" | "for" | "height" | "if" | "move" | "pause" | "polygon" | "radius" | "rectangle" | "rgb" | "rotate"</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>3</v>
-      </c>
-      <c r="B30" t="str">
-        <f>"`"&amp;A30&amp;"`"</f>
-        <v>`polygon`</v>
-      </c>
-      <c r="D30" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" t="str">
-        <f t="shared" si="0"/>
-        <v>"scale"</v>
-      </c>
-      <c r="G30" t="str">
-        <f t="shared" si="1"/>
-        <v>"canvas" | "circle" | "clear" | "color" | "draw" | "else" | "for" | "height" | "if" | "move" | "pause" | "polygon" | "radius" | "rectangle" | "rgb" | "rotate" | "scale"</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>12</v>
-      </c>
-      <c r="B31" t="str">
-        <f>"`"&amp;A31&amp;"`"</f>
-        <v>`radius`</v>
-      </c>
-      <c r="D31" t="s">
-        <v>38</v>
-      </c>
-      <c r="E31" t="str">
-        <f t="shared" si="0"/>
-        <v>"shear"</v>
-      </c>
-      <c r="G31" t="str">
-        <f t="shared" si="1"/>
-        <v>"canvas" | "circle" | "clear" | "color" | "draw" | "else" | "for" | "height" | "if" | "move" | "pause" | "polygon" | "radius" | "rectangle" | "rgb" | "rotate" | "scale" | "shear"</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" t="str">
-        <f>"`"&amp;A32&amp;"`"</f>
-        <v>`rectangle`</v>
-      </c>
-      <c r="D32" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" t="str">
-        <f t="shared" si="0"/>
-        <v>"triangle"</v>
-      </c>
-      <c r="G32" t="str">
-        <f t="shared" si="1"/>
-        <v>"canvas" | "circle" | "clear" | "color" | "draw" | "else" | "for" | "height" | "if" | "move" | "pause" | "polygon" | "radius" | "rectangle" | "rgb" | "rotate" | "scale" | "shear" | "triangle"</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>1</v>
-      </c>
-      <c r="B33" t="str">
-        <f>"`"&amp;A33&amp;"`"</f>
-        <v>`rgb`</v>
-      </c>
-      <c r="D33" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" t="str">
-        <f t="shared" si="0"/>
-        <v>"width"</v>
-      </c>
-      <c r="G33" t="str">
-        <f t="shared" si="1"/>
-        <v>"canvas" | "circle" | "clear" | "color" | "draw" | "else" | "for" | "height" | "if" | "move" | "pause" | "polygon" | "radius" | "rectangle" | "rgb" | "rotate" | "scale" | "shear" | "triangle" | "width"</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34" t="str">
-        <f>"`"&amp;A34&amp;"`"</f>
-        <v>`rotate`</v>
-      </c>
-      <c r="D34" t="s">
-        <v>56</v>
-      </c>
-      <c r="E34" t="str">
-        <f t="shared" si="0"/>
-        <v>"x"</v>
-      </c>
-      <c r="G34" t="str">
-        <f t="shared" si="1"/>
-        <v>"canvas" | "circle" | "clear" | "color" | "draw" | "else" | "for" | "height" | "if" | "move" | "pause" | "polygon" | "radius" | "rectangle" | "rgb" | "rotate" | "scale" | "shear" | "triangle" | "width" | "x"</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>8</v>
-      </c>
-      <c r="B35" t="str">
-        <f>"`"&amp;A35&amp;"`"</f>
-        <v>`scale`</v>
-      </c>
-      <c r="D35" t="s">
-        <v>57</v>
-      </c>
-      <c r="E35" t="str">
-        <f t="shared" si="0"/>
-        <v>"y"</v>
-      </c>
-      <c r="G35" t="str">
-        <f t="shared" si="1"/>
-        <v>"canvas" | "circle" | "clear" | "color" | "draw" | "else" | "for" | "height" | "if" | "move" | "pause" | "polygon" | "radius" | "rectangle" | "rgb" | "rotate" | "scale" | "shear" | "triangle" | "width" | "x" | "y"</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36" t="str">
-        <f>"`"&amp;A36&amp;"`"</f>
-        <v>`shear`</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" t="str">
-        <f>"`"&amp;A37&amp;"`"</f>
-        <v>`triangle`</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>11</v>
-      </c>
-      <c r="B38" t="str">
-        <f>"`"&amp;A38&amp;"`"</f>
-        <v>`width`</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>56</v>
-      </c>
-      <c r="B39" t="str">
-        <f>"`"&amp;A39&amp;"`"</f>
-        <v>`x`</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>57</v>
-      </c>
-      <c r="B40" t="str">
-        <f>"`"&amp;A40&amp;"`"</f>
-        <v>`y`</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B40">
-    <sortCondition ref="A1:A40"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B25">
+    <sortCondition ref="A1:A25"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
